--- a/DGEA/DEmiRNAs.xlsx
+++ b/DGEA/DEmiRNAs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8676"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8676" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="448" uniqueCount="138">
   <si>
     <t>Gene.Symbol</t>
   </si>
@@ -773,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:H27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,10 +784,14 @@
     <col min="1" max="1" width="13.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="5" width="8.88671875" style="1"/>
+    <col min="6" max="6" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -797,8 +801,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -808,8 +821,17 @@
       <c r="C2" s="1">
         <v>2.6952298233743698E-6</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1">
+        <v>-1.32397276473878</v>
+      </c>
+      <c r="H2" s="1">
+        <v>2.1027911569923601E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -819,8 +841,17 @@
       <c r="C3" s="1">
         <v>7.3207434468155902E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>-1.0942581182893001</v>
+      </c>
+      <c r="H3" s="1">
+        <v>2.4744489103116201E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -830,8 +861,17 @@
       <c r="C4" s="1">
         <v>2.1027911569923601E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G4" s="1">
+        <v>-0.99623934006880899</v>
+      </c>
+      <c r="H4" s="1">
+        <v>4.5991898449563098E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -841,8 +881,17 @@
       <c r="C5" s="1">
         <v>3.1721570805416801E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="1">
+        <v>-1.55022939259903</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.6175578928562801E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -852,8 +901,17 @@
       <c r="C6" s="1">
         <v>7.9637850093483098E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1">
+        <v>1.1907173014400201</v>
+      </c>
+      <c r="H6" s="1">
+        <v>4.2144974750312002E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -864,7 +922,7 @@
         <v>9.29509611945578E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -875,7 +933,7 @@
         <v>1.1016435928305E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -886,7 +944,7 @@
         <v>2.4744489103116201E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -897,7 +955,7 @@
         <v>3.2876157739615999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -908,7 +966,7 @@
         <v>4.5991898449563098E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -919,7 +977,7 @@
         <v>4.9311007608041904E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -930,7 +988,7 @@
         <v>6.29194995595065E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -941,7 +999,7 @@
         <v>7.1707402953690401E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -952,7 +1010,7 @@
         <v>8.6828246007662306E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1095,10 +1153,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D102"/>
+  <dimension ref="A1:K102"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="A63" sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1106,9 +1164,10 @@
     <col min="1" max="1" width="13.21875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1118,8 +1177,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -1129,8 +1197,17 @@
       <c r="C2" s="1">
         <v>3.7080919679126097E-17</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-1.0674753807177899</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8.3488667566542503E-11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>30</v>
       </c>
@@ -1140,8 +1217,17 @@
       <c r="C3" s="1">
         <v>8.0897103843512998E-11</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-0.87592910428176096</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1.42831520001871E-9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1151,8 +1237,17 @@
       <c r="C4" s="1">
         <v>8.3488667566542503E-11</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-0.90917403459032997</v>
+      </c>
+      <c r="J4" s="1">
+        <v>3.1410453474764498E-8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>19</v>
       </c>
@@ -1162,8 +1257,17 @@
       <c r="C5" s="1">
         <v>1.12692521076883E-10</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-0.87811562233618601</v>
+      </c>
+      <c r="J5" s="1">
+        <v>8.9461418136748404E-8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>25</v>
       </c>
@@ -1173,8 +1277,17 @@
       <c r="C6" s="1">
         <v>1.8958120777092099E-10</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-0.75552758315864199</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1.7650973254667699E-7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
@@ -1184,8 +1297,20 @@
       <c r="C7" s="1">
         <v>4.5957642779368302E-10</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H7" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-0.73751199598922501</v>
+      </c>
+      <c r="J7" s="1">
+        <v>3.7011833490015099E-7</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>3</v>
       </c>
@@ -1195,8 +1320,17 @@
       <c r="C8" s="1">
         <v>5.8710078912188302E-10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-0.73734862548927804</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4.3515308433144801E-7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>31</v>
       </c>
@@ -1206,8 +1340,17 @@
       <c r="C9" s="1">
         <v>1.42831520001871E-9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H9" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-0.73036554833326295</v>
+      </c>
+      <c r="J9" s="1">
+        <v>4.4850764232706399E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
@@ -1217,8 +1360,17 @@
       <c r="C10" s="1">
         <v>1.71212870276215E-9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-0.715929870501675</v>
+      </c>
+      <c r="J10" s="1">
+        <v>8.7070524809701001E-7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -1228,8 +1380,17 @@
       <c r="C11" s="1">
         <v>2.4125062064299098E-9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-0.69891111137769901</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1.61215317480843E-6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>10</v>
       </c>
@@ -1239,8 +1400,17 @@
       <c r="C12" s="1">
         <v>3.1410453474764498E-8</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H12" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-0.625036007313724</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1.8940974485816498E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -1250,8 +1420,17 @@
       <c r="C13" s="1">
         <v>3.1588066868458903E-8</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H13" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-0.57716441672614904</v>
+      </c>
+      <c r="J13" s="1">
+        <v>7.72656247062875E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1261,8 +1440,17 @@
       <c r="C14" s="1">
         <v>8.9461418136748404E-8</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H14" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0.55585324457894603</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.5524015072612501E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>6</v>
       </c>
@@ -1272,8 +1460,17 @@
       <c r="C15" s="1">
         <v>1.3153923472524999E-7</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-0.55442571287500297</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.6106778639634101E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>33</v>
       </c>
@@ -1283,8 +1480,17 @@
       <c r="C16" s="1">
         <v>1.7650973254667699E-7</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H16" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-0.494463234727122</v>
+      </c>
+      <c r="J16" s="1">
+        <v>7.6988748621321696E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
@@ -1297,8 +1503,17 @@
       <c r="D17" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H17" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-0.89575594428400296</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.3250190694685999E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>35</v>
       </c>
@@ -1308,8 +1523,17 @@
       <c r="C18" s="1">
         <v>4.3515308433144801E-7</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-0.46076898369751501</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.7927406199718201E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1319,8 +1543,17 @@
       <c r="C19" s="1">
         <v>4.4850764232706399E-7</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-0.85403973507490305</v>
+      </c>
+      <c r="J19" s="1">
+        <v>2.4796013552191602E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>37</v>
       </c>
@@ -1330,8 +1563,17 @@
       <c r="C20" s="1">
         <v>8.7070524809701001E-7</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="I20" s="1">
+        <v>-0.43004130835608301</v>
+      </c>
+      <c r="J20" s="1">
+        <v>3.5086442140726199E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>38</v>
       </c>
@@ -1341,8 +1583,17 @@
       <c r="C21" s="1">
         <v>1.61215317480843E-6</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H21" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="1">
+        <v>-0.80491536008737796</v>
+      </c>
+      <c r="J21" s="1">
+        <v>4.53043320808317E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>8</v>
       </c>
@@ -1352,8 +1603,17 @@
       <c r="C22" s="1">
         <v>2.0491462071742902E-6</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H22" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-0.78654359495904103</v>
+      </c>
+      <c r="J22" s="1">
+        <v>5.0581695526944201E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
@@ -1363,8 +1623,17 @@
       <c r="C23" s="1">
         <v>2.91544161570877E-6</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H23" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-0.41069074452388099</v>
+      </c>
+      <c r="J23" s="1">
+        <v>5.5360102075923696E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>39</v>
       </c>
@@ -1374,8 +1643,17 @@
       <c r="C24" s="1">
         <v>4.4816241434598504E-6</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-0.77976467195244004</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5.75564189492848E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>40</v>
       </c>
@@ -1385,8 +1663,17 @@
       <c r="C25" s="1">
         <v>7.53633212601906E-6</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H25" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-0.76049895799932798</v>
+      </c>
+      <c r="J25" s="1">
+        <v>6.6451030141379099E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -1396,8 +1683,17 @@
       <c r="C26" s="1">
         <v>8.6341544991294907E-6</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-0.76494538108348298</v>
+      </c>
+      <c r="J26" s="1">
+        <v>6.8107959671105302E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>23</v>
       </c>
@@ -1407,8 +1703,17 @@
       <c r="C27" s="1">
         <v>9.7029586155204895E-6</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-0.39996409726035898</v>
+      </c>
+      <c r="J27" s="1">
+        <v>6.8599211504503897E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>41</v>
       </c>
@@ -1418,8 +1723,17 @@
       <c r="C28" s="1">
         <v>1.2869643680445199E-5</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H28" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-0.75056568088168596</v>
+      </c>
+      <c r="J28" s="1">
+        <v>7.7473024849609501E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>42</v>
       </c>
@@ -1429,8 +1743,17 @@
       <c r="C29" s="1">
         <v>1.8940974485816498E-5</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-0.38265811601182897</v>
+      </c>
+      <c r="J29" s="1">
+        <v>9.2552748416132192E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>22</v>
       </c>
@@ -1440,8 +1763,17 @@
       <c r="C30" s="1">
         <v>3.2229400582190498E-5</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-0.72668560111025604</v>
+      </c>
+      <c r="J30" s="1">
+        <v>1.04415089379526E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>43</v>
       </c>
@@ -1451,8 +1783,17 @@
       <c r="C31" s="1">
         <v>7.72656247062875E-5</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H31" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-0.71274298530982905</v>
+      </c>
+      <c r="J31" s="1">
+        <v>1.2143443798064899E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>44</v>
       </c>
@@ -1462,8 +1803,17 @@
       <c r="C32" s="1">
         <v>1.01389584523049E-4</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H32" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-0.36789087850213098</v>
+      </c>
+      <c r="J32" s="1">
+        <v>1.25540569431568E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>45</v>
       </c>
@@ -1473,8 +1823,17 @@
       <c r="C33" s="1">
         <v>1.5524015072612501E-4</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H33" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-0.358755931683162</v>
+      </c>
+      <c r="J33" s="1">
+        <v>1.56590353752479E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>46</v>
       </c>
@@ -1484,8 +1843,17 @@
       <c r="C34" s="1">
         <v>1.6106778639634101E-4</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H34" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-0.67782705963452705</v>
+      </c>
+      <c r="J34" s="1">
+        <v>1.6343732733910401E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>17</v>
       </c>
@@ -1495,8 +1863,17 @@
       <c r="C35" s="1">
         <v>2.7602096759533098E-4</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H35" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-0.35374095081420998</v>
+      </c>
+      <c r="J35" s="1">
+        <v>1.7050553219998401E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>26</v>
       </c>
@@ -1506,8 +1883,17 @@
       <c r="C36" s="1">
         <v>3.0517753280187002E-4</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-0.66278950550308302</v>
+      </c>
+      <c r="J36" s="1">
+        <v>1.87364813005662E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>47</v>
       </c>
@@ -1517,8 +1903,17 @@
       <c r="C37" s="1">
         <v>4.17343583185553E-4</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H37" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-0.65745222013240601</v>
+      </c>
+      <c r="J37" s="1">
+        <v>1.9426972429694399E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>48</v>
       </c>
@@ -1531,8 +1926,17 @@
       <c r="D38" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I38" s="1">
+        <v>-0.65149362533170796</v>
+      </c>
+      <c r="J38" s="1">
+        <v>2.1893703991962599E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>49</v>
       </c>
@@ -1542,8 +1946,17 @@
       <c r="C39" s="1">
         <v>7.6988748621321696E-4</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-0.651697694752297</v>
+      </c>
+      <c r="J39" s="1">
+        <v>2.19484057140228E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>15</v>
       </c>
@@ -1553,8 +1966,17 @@
       <c r="C40" s="1">
         <v>9.6054197340583898E-4</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H40" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I40" s="1">
+        <v>-0.652687431740548</v>
+      </c>
+      <c r="J40" s="1">
+        <v>2.2053249063386501E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>21</v>
       </c>
@@ -1564,8 +1986,17 @@
       <c r="C41" s="1">
         <v>1.20132302768729E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H41" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-0.65456369793489899</v>
+      </c>
+      <c r="J41" s="1">
+        <v>2.22541614151834E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>50</v>
       </c>
@@ -1575,8 +2006,17 @@
       <c r="C42" s="1">
         <v>1.3250190694685999E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H42" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-0.64709855518822601</v>
+      </c>
+      <c r="J42" s="1">
+        <v>2.2285113478169201E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>51</v>
       </c>
@@ -1586,8 +2026,17 @@
       <c r="C43" s="1">
         <v>1.7927406199718201E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H43" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I43" s="1">
+        <v>-0.64793576716427703</v>
+      </c>
+      <c r="J43" s="1">
+        <v>2.32106921789547E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>11</v>
       </c>
@@ -1597,8 +2046,17 @@
       <c r="C44" s="1">
         <v>2.10835495441566E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H44" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I44" s="1">
+        <v>-0.63913939408794895</v>
+      </c>
+      <c r="J44" s="1">
+        <v>2.38233579176934E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>52</v>
       </c>
@@ -1608,8 +2066,17 @@
       <c r="C45" s="1">
         <v>2.4796013552191602E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45" s="1">
+        <v>-0.64275466359969702</v>
+      </c>
+      <c r="J45" s="1">
+        <v>2.3838649016977E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>53</v>
       </c>
@@ -1619,8 +2086,17 @@
       <c r="C46" s="1">
         <v>3.5086442140726199E-3</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H46" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I46" s="1">
+        <v>-0.64548331215062604</v>
+      </c>
+      <c r="J46" s="1">
+        <v>2.4046076341369699E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>54</v>
       </c>
@@ -1630,8 +2106,17 @@
       <c r="C47" s="1">
         <v>4.53043320808317E-3</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H47" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I47" s="1">
+        <v>-0.63947260887866397</v>
+      </c>
+      <c r="J47" s="1">
+        <v>2.4953275446772501E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>55</v>
       </c>
@@ -1641,8 +2126,17 @@
       <c r="C48" s="1">
         <v>5.0581695526944201E-3</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H48" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I48" s="1">
+        <v>-0.63621896900715003</v>
+      </c>
+      <c r="J48" s="1">
+        <v>2.5412234589402401E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>56</v>
       </c>
@@ -1652,8 +2146,17 @@
       <c r="C49" s="1">
         <v>5.5360102075923696E-3</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H49" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I49" s="1">
+        <v>-0.63759822260288601</v>
+      </c>
+      <c r="J49" s="1">
+        <v>2.6137154053558299E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>57</v>
       </c>
@@ -1663,8 +2166,17 @@
       <c r="C50" s="1">
         <v>5.75564189492848E-3</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H50" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I50" s="1">
+        <v>-0.62991213342060803</v>
+      </c>
+      <c r="J50" s="1">
+        <v>2.6580239056665601E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>58</v>
       </c>
@@ -1674,8 +2186,17 @@
       <c r="C51" s="1">
         <v>6.6451030141379099E-3</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H51" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I51" s="1">
+        <v>-0.63101306035906901</v>
+      </c>
+      <c r="J51" s="1">
+        <v>2.6759334221027001E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>59</v>
       </c>
@@ -1685,8 +2206,17 @@
       <c r="C52" s="1">
         <v>6.8107959671105302E-3</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H52" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I52" s="1">
+        <v>-0.62896107655581801</v>
+      </c>
+      <c r="J52" s="1">
+        <v>2.7778888781990502E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>60</v>
       </c>
@@ -1696,8 +2226,17 @@
       <c r="C53" s="1">
         <v>6.8599211504503897E-3</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H53" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="I53" s="1">
+        <v>-0.62887223023577199</v>
+      </c>
+      <c r="J53" s="1">
+        <v>2.77967291845993E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>28</v>
       </c>
@@ -1710,8 +2249,17 @@
       <c r="D54" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H54" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I54" s="1">
+        <v>-0.62279490553015204</v>
+      </c>
+      <c r="J54" s="1">
+        <v>2.89285670375573E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>61</v>
       </c>
@@ -1721,8 +2269,17 @@
       <c r="C55" s="1">
         <v>7.7473024849609501E-3</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H55" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I55" s="1">
+        <v>-0.62167467058183401</v>
+      </c>
+      <c r="J55" s="1">
+        <v>2.9062538134346502E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>62</v>
       </c>
@@ -1732,8 +2289,17 @@
       <c r="C56" s="1">
         <v>8.7273950558104194E-3</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H56" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I56" s="1">
+        <v>-0.61782768311593494</v>
+      </c>
+      <c r="J56" s="1">
+        <v>2.9256369737526499E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>63</v>
       </c>
@@ -1743,8 +2309,17 @@
       <c r="C57" s="1">
         <v>9.0696691085803503E-3</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H57" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I57" s="1">
+        <v>-0.62004885953706201</v>
+      </c>
+      <c r="J57" s="1">
+        <v>3.01003345618563E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>64</v>
       </c>
@@ -1754,8 +2329,17 @@
       <c r="C58" s="1">
         <v>9.2552748416132192E-3</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H58" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I58" s="1">
+        <v>-0.60668372384208602</v>
+      </c>
+      <c r="J58" s="1">
+        <v>3.2667302192537703E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>65</v>
       </c>
@@ -1765,8 +2349,20 @@
       <c r="C59" s="1">
         <v>1.04415089379526E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H59" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I59" s="1">
+        <v>-0.60801943696750604</v>
+      </c>
+      <c r="J59" s="1">
+        <v>3.2709108593306502E-2</v>
+      </c>
+      <c r="K59" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>66</v>
       </c>
@@ -1776,8 +2372,17 @@
       <c r="C60" s="1">
         <v>1.2143443798064899E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H60" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I60" s="1">
+        <v>-0.61064050846911699</v>
+      </c>
+      <c r="J60" s="1">
+        <v>3.3442553245842298E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>67</v>
       </c>
@@ -1787,8 +2392,17 @@
       <c r="C61" s="1">
         <v>1.25540569431568E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H61" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I61" s="1">
+        <v>-0.60896473289032005</v>
+      </c>
+      <c r="J61" s="1">
+        <v>3.3474707713053997E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>68</v>
       </c>
@@ -1798,8 +2412,17 @@
       <c r="C62" s="1">
         <v>1.56590353752479E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H62" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I62" s="1">
+        <v>-0.60438534711062297</v>
+      </c>
+      <c r="J62" s="1">
+        <v>3.4110835608270003E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>69</v>
       </c>
@@ -1809,8 +2432,17 @@
       <c r="C63" s="1">
         <v>1.6343732733910401E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H63" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I63" s="1">
+        <v>-0.59077755747337202</v>
+      </c>
+      <c r="J63" s="1">
+        <v>3.82988614034094E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>70</v>
       </c>
@@ -1820,8 +2452,17 @@
       <c r="C64" s="1">
         <v>1.7050553219998401E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H64" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I64" s="1">
+        <v>-0.58882334348159204</v>
+      </c>
+      <c r="J64" s="1">
+        <v>3.87422958883877E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>71</v>
       </c>
@@ -1831,8 +2472,17 @@
       <c r="C65" s="1">
         <v>1.87364813005662E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H65" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="I65" s="1">
+        <v>-0.58575895105033104</v>
+      </c>
+      <c r="J65" s="1">
+        <v>4.0803781650737198E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>72</v>
       </c>
@@ -1842,8 +2492,17 @@
       <c r="C66" s="1">
         <v>1.9426972429694399E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H66" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="I66" s="1">
+        <v>-0.577135081695757</v>
+      </c>
+      <c r="J66" s="1">
+        <v>4.2228552839546997E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>73</v>
       </c>
@@ -1853,8 +2512,17 @@
       <c r="C67" s="1">
         <v>2.1893703991962599E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H67" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="I67" s="1">
+        <v>-0.30165884667760301</v>
+      </c>
+      <c r="J67" s="1">
+        <v>4.3016193946427403E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>74</v>
       </c>
@@ -1864,8 +2532,20 @@
       <c r="C68" s="1">
         <v>2.19484057140228E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H68" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I68" s="1">
+        <v>-0.575566877383067</v>
+      </c>
+      <c r="J68" s="1">
+        <v>4.4398135957002802E-2</v>
+      </c>
+      <c r="K68" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>75</v>
       </c>
@@ -1875,8 +2555,17 @@
       <c r="C69" s="1">
         <v>2.2053249063386501E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H69" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I69" s="1">
+        <v>-0.56912992348452796</v>
+      </c>
+      <c r="J69" s="1">
+        <v>4.6323293458433598E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>76</v>
       </c>
@@ -1886,8 +2575,17 @@
       <c r="C70" s="1">
         <v>2.22541614151834E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H70" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="I70" s="1">
+        <v>-0.56893354564406595</v>
+      </c>
+      <c r="J70" s="1">
+        <v>4.63995731219125E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>77</v>
       </c>
@@ -1898,7 +2596,7 @@
         <v>2.2285113478169201E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>78</v>
       </c>
@@ -1909,7 +2607,7 @@
         <v>2.32106921789547E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>79</v>
       </c>
@@ -1920,7 +2618,7 @@
         <v>2.38233579176934E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>80</v>
       </c>
@@ -1931,7 +2629,7 @@
         <v>2.3838649016977E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>81</v>
       </c>
@@ -1942,7 +2640,7 @@
         <v>2.4046076341369699E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>82</v>
       </c>
@@ -1953,7 +2651,7 @@
         <v>2.4953275446772501E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>83</v>
       </c>
@@ -1964,7 +2662,7 @@
         <v>2.5412234589402401E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>84</v>
       </c>
@@ -1975,7 +2673,7 @@
         <v>2.6137154053558299E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>85</v>
       </c>
@@ -1986,7 +2684,7 @@
         <v>2.6580239056665601E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>86</v>
       </c>
@@ -2253,10 +2951,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D89"/>
+  <dimension ref="A1:K89"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="F60" sqref="F60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2265,10 +2963,12 @@
     <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.88671875" style="1"/>
+    <col min="5" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2278,8 +2978,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>52</v>
       </c>
@@ -2289,8 +2998,17 @@
       <c r="C2" s="1">
         <v>1.9370427398527701E-5</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="I2" s="1">
+        <v>-1.1740283751623899</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1.9370427398527701E-5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -2300,8 +3018,17 @@
       <c r="C3" s="1">
         <v>2.62431194897127E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1.0545557614322301</v>
+      </c>
+      <c r="J3" s="1">
+        <v>7.8356686848547296E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -2311,8 +3038,17 @@
       <c r="C4" s="1">
         <v>7.2070776240606806E-5</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-0.99052533903426898</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2.5878789565778699E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2322,8 +3058,17 @@
       <c r="C5" s="1">
         <v>7.8356686848547296E-5</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H5" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-0.98550181065463804</v>
+      </c>
+      <c r="J5" s="1">
+        <v>3.0508955540318197E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>108</v>
       </c>
@@ -2333,8 +3078,17 @@
       <c r="C6" s="1">
         <v>2.5878789565778699E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H6" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-1.0372141448764001</v>
+      </c>
+      <c r="J6" s="1">
+        <v>3.4358295373666797E-4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>57</v>
       </c>
@@ -2344,8 +3098,20 @@
       <c r="C7" s="1">
         <v>3.0508955540318197E-4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H7" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-0.95908577328352396</v>
+      </c>
+      <c r="J7" s="1">
+        <v>4.0495657966259298E-4</v>
+      </c>
+      <c r="K7" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>80</v>
       </c>
@@ -2355,8 +3121,17 @@
       <c r="C8" s="1">
         <v>3.4358295373666797E-4</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H8" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-0.95419401896575795</v>
+      </c>
+      <c r="J8" s="1">
+        <v>4.8519671062941899E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>104</v>
       </c>
@@ -2369,8 +3144,17 @@
       <c r="D9" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H9" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-0.92081128872949503</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5.67062696686207E-4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>71</v>
       </c>
@@ -2380,8 +3164,17 @@
       <c r="C10" s="1">
         <v>4.8519671062941899E-4</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H10" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-0.94787533419168801</v>
+      </c>
+      <c r="J10" s="1">
+        <v>7.4824940791349203E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>66</v>
       </c>
@@ -2391,8 +3184,17 @@
       <c r="C11" s="1">
         <v>5.67062696686207E-4</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H11" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-0.89425918208581201</v>
+      </c>
+      <c r="J11" s="1">
+        <v>8.5659297351984296E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>78</v>
       </c>
@@ -2402,8 +3204,17 @@
       <c r="C12" s="1">
         <v>7.4824940791349203E-4</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H12" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-0.87058667667307399</v>
+      </c>
+      <c r="J12" s="1">
+        <v>9.8508729364310196E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>109</v>
       </c>
@@ -2413,8 +3224,17 @@
       <c r="C13" s="1">
         <v>8.5659297351984296E-4</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-0.88014870155245095</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1.0415052863563901E-3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>67</v>
       </c>
@@ -2424,8 +3244,17 @@
       <c r="C14" s="1">
         <v>9.8508729364310196E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H14" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-0.87690919837699899</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1.1794775103520401E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>110</v>
       </c>
@@ -2435,8 +3264,17 @@
       <c r="C15" s="1">
         <v>1.0415052863563901E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I15" s="1">
+        <v>-0.87743813692356498</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1.2842833664472001E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>100</v>
       </c>
@@ -2446,8 +3284,17 @@
       <c r="C16" s="1">
         <v>1.1794775103520401E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-0.82775213520229496</v>
+      </c>
+      <c r="J16" s="1">
+        <v>1.4194353112633E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>35</v>
       </c>
@@ -2457,8 +3304,17 @@
       <c r="C17" s="1">
         <v>1.2842833664472001E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H17" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-0.88532819493912895</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1.4501741595317301E-3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>91</v>
       </c>
@@ -2468,8 +3324,17 @@
       <c r="C18" s="1">
         <v>1.4194353112633E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-0.88549371591107195</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1.4778976509734101E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>111</v>
       </c>
@@ -2479,8 +3344,17 @@
       <c r="C19" s="1">
         <v>1.4501741595317301E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H19" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I19" s="1">
+        <v>-0.87151298892975104</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1.7781577063961599E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -2490,8 +3364,17 @@
       <c r="C20" s="1">
         <v>1.4778976509734101E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H20" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.82518662777891005</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1.9548757021414899E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>112</v>
       </c>
@@ -2501,8 +3384,17 @@
       <c r="C21" s="1">
         <v>1.7781577063961599E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H21" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I21" s="1">
+        <v>0.78517910297470295</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1.9962276024782701E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
@@ -2512,8 +3404,17 @@
       <c r="C22" s="1">
         <v>1.9548757021414899E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="1">
+        <v>-0.81438232940158795</v>
+      </c>
+      <c r="J22" s="1">
+        <v>2.334733703158E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>113</v>
       </c>
@@ -2523,8 +3424,17 @@
       <c r="C23" s="1">
         <v>1.9962276024782701E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="1">
+        <v>-0.78651633802897702</v>
+      </c>
+      <c r="J23" s="1">
+        <v>3.4991397646635999E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>6</v>
       </c>
@@ -2534,8 +3444,17 @@
       <c r="C24" s="1">
         <v>2.3338091803825401E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H24" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" s="1">
+        <v>-0.76884534937664695</v>
+      </c>
+      <c r="J24" s="1">
+        <v>3.8475881302742899E-3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>42</v>
       </c>
@@ -2545,8 +3464,17 @@
       <c r="C25" s="1">
         <v>2.334733703158E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H25" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" s="1">
+        <v>-0.75293940010261295</v>
+      </c>
+      <c r="J25" s="1">
+        <v>4.1853564805374504E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>37</v>
       </c>
@@ -2556,8 +3484,17 @@
       <c r="C26" s="1">
         <v>3.4991397646635999E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H26" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="I26" s="1">
+        <v>-0.81926880435606897</v>
+      </c>
+      <c r="J26" s="1">
+        <v>4.2551896559954901E-3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>79</v>
       </c>
@@ -2567,8 +3504,17 @@
       <c r="C27" s="1">
         <v>3.8475881302742899E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" s="1">
+        <v>-0.76774793084501003</v>
+      </c>
+      <c r="J27" s="1">
+        <v>4.5028729229476998E-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>85</v>
       </c>
@@ -2578,8 +3524,17 @@
       <c r="C28" s="1">
         <v>4.1853564805374504E-3</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H28" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="I28" s="1">
+        <v>-0.77754445005774497</v>
+      </c>
+      <c r="J28" s="1">
+        <v>4.6883144562462802E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>96</v>
       </c>
@@ -2589,8 +3544,17 @@
       <c r="C29" s="1">
         <v>4.2551896559954901E-3</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H29" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="I29" s="1">
+        <v>-0.77884654692083899</v>
+      </c>
+      <c r="J29" s="1">
+        <v>5.09071694782699E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>114</v>
       </c>
@@ -2600,8 +3564,17 @@
       <c r="C30" s="1">
         <v>4.5028729229476998E-3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H30" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I30" s="1">
+        <v>-0.75341769646143597</v>
+      </c>
+      <c r="J30" s="1">
+        <v>5.5374740927455401E-3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>98</v>
       </c>
@@ -2611,8 +3584,17 @@
       <c r="C31" s="1">
         <v>4.6883144562462802E-3</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H31" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="I31" s="1">
+        <v>-0.73516839286892299</v>
+      </c>
+      <c r="J31" s="1">
+        <v>6.04305444569345E-3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>90</v>
       </c>
@@ -2622,8 +3604,17 @@
       <c r="C32" s="1">
         <v>5.09071694782699E-3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H32" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="I32" s="1">
+        <v>-0.72493656694179098</v>
+      </c>
+      <c r="J32" s="1">
+        <v>6.7912292996640897E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
         <v>63</v>
       </c>
@@ -2633,8 +3624,17 @@
       <c r="C33" s="1">
         <v>5.1295182294548002E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H33" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="I33" s="1">
+        <v>-0.74944699084769995</v>
+      </c>
+      <c r="J33" s="1">
+        <v>6.9752050862297004E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
         <v>4</v>
       </c>
@@ -2644,8 +3644,17 @@
       <c r="C34" s="1">
         <v>5.15676204611255E-3</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="I34" s="1">
+        <v>-0.76761915996204499</v>
+      </c>
+      <c r="J34" s="1">
+        <v>7.40703309101987E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
         <v>115</v>
       </c>
@@ -2655,8 +3664,17 @@
       <c r="C35" s="1">
         <v>5.5374740927455401E-3</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H35" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="I35" s="1">
+        <v>-0.755271885883671</v>
+      </c>
+      <c r="J35" s="1">
+        <v>7.5957158814678599E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
         <v>116</v>
       </c>
@@ -2666,8 +3684,17 @@
       <c r="C36" s="1">
         <v>6.04305444569345E-3</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H36" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="I36" s="1">
+        <v>-0.69141474098379496</v>
+      </c>
+      <c r="J36" s="1">
+        <v>8.9014635054052403E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
         <v>117</v>
       </c>
@@ -2677,8 +3704,17 @@
       <c r="C37" s="1">
         <v>6.7912292996640897E-3</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H37" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I37" s="1">
+        <v>-0.737351036629602</v>
+      </c>
+      <c r="J37" s="1">
+        <v>9.0485674717069604E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
         <v>65</v>
       </c>
@@ -2688,8 +3724,17 @@
       <c r="C38" s="1">
         <v>6.9752050862297004E-3</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H38" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="I38" s="1">
+        <v>-0.70112700807975603</v>
+      </c>
+      <c r="J38" s="1">
+        <v>9.3159171090831105E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
         <v>118</v>
       </c>
@@ -2699,8 +3744,17 @@
       <c r="C39" s="1">
         <v>7.40703309101987E-3</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H39" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I39" s="1">
+        <v>-0.71701215853298494</v>
+      </c>
+      <c r="J39" s="1">
+        <v>9.4969171287084108E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
         <v>84</v>
       </c>
@@ -2710,8 +3764,17 @@
       <c r="C40" s="1">
         <v>7.5957158814678599E-3</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="I40" s="1">
+        <v>-0.67258794686440604</v>
+      </c>
+      <c r="J40" s="1">
+        <v>9.8592156502666992E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
         <v>119</v>
       </c>
@@ -2721,8 +3784,17 @@
       <c r="C41" s="1">
         <v>8.9014635054052403E-3</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I41" s="1">
+        <v>-0.66669292242079403</v>
+      </c>
+      <c r="J41" s="1">
+        <v>1.14180057223009E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
         <v>55</v>
       </c>
@@ -2732,8 +3804,17 @@
       <c r="C42" s="1">
         <v>9.0485674717069604E-3</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H42" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I42" s="1">
+        <v>-0.71820460923603402</v>
+      </c>
+      <c r="J42" s="1">
+        <v>1.1732557830940699E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
         <v>50</v>
       </c>
@@ -2743,8 +3824,17 @@
       <c r="C43" s="1">
         <v>9.3159171090831105E-3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H43" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="I43" s="1">
+        <v>0.69969016133652495</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1.28273844588646E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
         <v>105</v>
       </c>
@@ -2754,8 +3844,17 @@
       <c r="C44" s="1">
         <v>9.4969171287084108E-3</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H44" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="I44" s="1">
+        <v>-0.69245014850979703</v>
+      </c>
+      <c r="J44" s="1">
+        <v>1.3496105786857599E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
         <v>120</v>
       </c>
@@ -2765,8 +3864,17 @@
       <c r="C45" s="1">
         <v>9.8592156502666992E-3</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H45" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="I45" s="1">
+        <v>-0.66340126502875796</v>
+      </c>
+      <c r="J45" s="1">
+        <v>1.3718196816471601E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
         <v>94</v>
       </c>
@@ -2776,8 +3884,17 @@
       <c r="C46" s="1">
         <v>1.14180057223009E-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H46" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I46" s="1">
+        <v>-0.67310984709788002</v>
+      </c>
+      <c r="J46" s="1">
+        <v>1.387842630732E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
         <v>121</v>
       </c>
@@ -2787,8 +3904,17 @@
       <c r="C47" s="1">
         <v>1.1732557830940699E-2</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="I47" s="1">
+        <v>-0.67649317860037805</v>
+      </c>
+      <c r="J47" s="1">
+        <v>1.44054020013769E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
         <v>16</v>
       </c>
@@ -2798,8 +3924,20 @@
       <c r="C48" s="1">
         <v>1.22766426912183E-2</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H48" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="I48" s="1">
+        <v>-0.66161556443040603</v>
+      </c>
+      <c r="J48" s="1">
+        <v>1.7180672693719399E-2</v>
+      </c>
+      <c r="K48" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
         <v>122</v>
       </c>
@@ -2809,8 +3947,17 @@
       <c r="C49" s="1">
         <v>1.28273844588646E-2</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H49" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I49" s="1">
+        <v>-0.64228575546883804</v>
+      </c>
+      <c r="J49" s="1">
+        <v>1.78304701014751E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
         <v>123</v>
       </c>
@@ -2820,8 +3967,17 @@
       <c r="C50" s="1">
         <v>1.3496105786857599E-2</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="I50" s="1">
+        <v>0.60924751608206196</v>
+      </c>
+      <c r="J50" s="1">
+        <v>1.88538113758571E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
         <v>8</v>
       </c>
@@ -2831,8 +3987,17 @@
       <c r="C51" s="1">
         <v>1.3579226100781499E-2</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H51" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I51" s="1">
+        <v>-0.63195311931131903</v>
+      </c>
+      <c r="J51" s="1">
+        <v>1.8942610413599299E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
         <v>81</v>
       </c>
@@ -2842,8 +4007,17 @@
       <c r="C52" s="1">
         <v>1.3718196816471601E-2</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H52" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="I52" s="1">
+        <v>-0.66147897761723395</v>
+      </c>
+      <c r="J52" s="1">
+        <v>1.99868039859489E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
         <v>124</v>
       </c>
@@ -2853,8 +4027,17 @@
       <c r="C53" s="1">
         <v>1.387842630732E-2</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H53" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I53" s="1">
+        <v>-0.64565397197089502</v>
+      </c>
+      <c r="J53" s="1">
+        <v>2.06150573664278E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
         <v>11</v>
       </c>
@@ -2864,8 +4047,17 @@
       <c r="C54" s="1">
         <v>1.3949604963267101E-2</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H54" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I54" s="1">
+        <v>-0.644565873384076</v>
+      </c>
+      <c r="J54" s="1">
+        <v>2.0824411823977099E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>125</v>
       </c>
@@ -2875,8 +4067,17 @@
       <c r="C55" s="1">
         <v>1.44054020013769E-2</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H55" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I55" s="1">
+        <v>-0.64332437764747297</v>
+      </c>
+      <c r="J55" s="1">
+        <v>2.46647074958103E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
         <v>126</v>
       </c>
@@ -2889,8 +4090,17 @@
       <c r="D56" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H56" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I56" s="1">
+        <v>-0.60391406239485301</v>
+      </c>
+      <c r="J56" s="1">
+        <v>2.5376036946589599E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
         <v>54</v>
       </c>
@@ -2900,8 +4110,17 @@
       <c r="C57" s="1">
         <v>1.78304701014751E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H57" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="I57" s="1">
+        <v>-0.617829872086473</v>
+      </c>
+      <c r="J57" s="1">
+        <v>2.6313709193707201E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
         <v>7</v>
       </c>
@@ -2911,8 +4130,17 @@
       <c r="C58" s="1">
         <v>1.81997070230372E-2</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H58" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I58" s="1">
+        <v>-0.62221095379414804</v>
+      </c>
+      <c r="J58" s="1">
+        <v>2.6944149237771699E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
         <v>127</v>
       </c>
@@ -2922,8 +4150,17 @@
       <c r="C59" s="1">
         <v>1.88538113758571E-2</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H59" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="I59" s="1">
+        <v>-0.64489212923158401</v>
+      </c>
+      <c r="J59" s="1">
+        <v>2.73209776972974E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
         <v>89</v>
       </c>
@@ -2933,8 +4170,17 @@
       <c r="C60" s="1">
         <v>1.8942610413599299E-2</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H60" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="I60" s="1">
+        <v>-0.61588687691503496</v>
+      </c>
+      <c r="J60" s="1">
+        <v>2.7451673982808299E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>128</v>
       </c>
@@ -2944,8 +4190,20 @@
       <c r="C61" s="1">
         <v>1.99868039859489E-2</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H61" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="I61" s="1">
+        <v>-0.59447256679772598</v>
+      </c>
+      <c r="J61" s="1">
+        <v>2.8040605951323402E-2</v>
+      </c>
+      <c r="K61" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>47</v>
       </c>
@@ -2955,8 +4213,17 @@
       <c r="C62" s="1">
         <v>2.0354439804482399E-2</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H62" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I62" s="1">
+        <v>-0.59847366410139602</v>
+      </c>
+      <c r="J62" s="1">
+        <v>2.81915421833395E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
         <v>129</v>
       </c>
@@ -2966,8 +4233,17 @@
       <c r="C63" s="1">
         <v>2.06150573664278E-2</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H63" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I63" s="1">
+        <v>-0.62495047452802899</v>
+      </c>
+      <c r="J63" s="1">
+        <v>2.8636400979769602E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>130</v>
       </c>
@@ -2977,8 +4253,17 @@
       <c r="C64" s="1">
         <v>2.0824411823977099E-2</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H64" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I64" s="1">
+        <v>-0.60774585439748996</v>
+      </c>
+      <c r="J64" s="1">
+        <v>2.9576636031605399E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>87</v>
       </c>
@@ -2988,8 +4273,17 @@
       <c r="C65" s="1">
         <v>2.46647074958103E-2</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H65" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I65" s="1">
+        <v>0.56249023040808599</v>
+      </c>
+      <c r="J65" s="1">
+        <v>2.97131658237367E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
         <v>131</v>
       </c>
@@ -2999,8 +4293,17 @@
       <c r="C66" s="1">
         <v>2.5376036946589599E-2</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H66" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I66" s="1">
+        <v>-0.58041018190634897</v>
+      </c>
+      <c r="J66" s="1">
+        <v>2.98444393366636E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>56</v>
       </c>
@@ -3010,8 +4313,17 @@
       <c r="C67" s="1">
         <v>2.6313709193707201E-2</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H67" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I67" s="1">
+        <v>-0.55281618276433397</v>
+      </c>
+      <c r="J67" s="1">
+        <v>3.0310680028559599E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>75</v>
       </c>
@@ -3021,8 +4333,17 @@
       <c r="C68" s="1">
         <v>2.6944149237771699E-2</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H68" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="I68" s="1">
+        <v>-0.58622471147282995</v>
+      </c>
+      <c r="J68" s="1">
+        <v>3.06070365671317E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
         <v>9</v>
       </c>
@@ -3032,8 +4353,17 @@
       <c r="C69" s="1">
         <v>2.7230920776102799E-2</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H69" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I69" s="1">
+        <v>-0.58182015043491497</v>
+      </c>
+      <c r="J69" s="1">
+        <v>3.4448189807370799E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70" s="1" t="s">
         <v>132</v>
       </c>
@@ -3043,8 +4373,17 @@
       <c r="C70" s="1">
         <v>2.73209776972974E-2</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H70" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="I70" s="1">
+        <v>-0.57984085621724901</v>
+      </c>
+      <c r="J70" s="1">
+        <v>3.4449933573859101E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>92</v>
       </c>
@@ -3054,8 +4393,17 @@
       <c r="C71" s="1">
         <v>2.7451673982808299E-2</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H71" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I71" s="1">
+        <v>-0.57498001515933495</v>
+      </c>
+      <c r="J71" s="1">
+        <v>3.4582008453793403E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72" s="1" t="s">
         <v>34</v>
       </c>
@@ -3068,8 +4416,17 @@
       <c r="D72" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H72" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="I72" s="1">
+        <v>-0.58353533793437096</v>
+      </c>
+      <c r="J72" s="1">
+        <v>3.5457610405035103E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
@@ -3079,8 +4436,17 @@
       <c r="C73" s="1">
         <v>2.81915421833395E-2</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H73" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I73" s="1">
+        <v>-0.55696971296155295</v>
+      </c>
+      <c r="J73" s="1">
+        <v>3.91817058639004E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>36</v>
       </c>
@@ -3090,8 +4456,17 @@
       <c r="C74" s="1">
         <v>2.8636400979769602E-2</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H74" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="I74" s="1">
+        <v>-0.57643369307528403</v>
+      </c>
+      <c r="J74" s="1">
+        <v>4.1860348250307898E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75" s="1" t="s">
         <v>59</v>
       </c>
@@ -3101,8 +4476,17 @@
       <c r="C75" s="1">
         <v>2.9576636031605399E-2</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H75" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I75" s="1">
+        <v>-0.56262264724810096</v>
+      </c>
+      <c r="J75" s="1">
+        <v>4.3886271029125103E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76" s="1" t="s">
         <v>133</v>
       </c>
@@ -3113,7 +4497,7 @@
         <v>2.97131658237367E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77" s="1" t="s">
         <v>77</v>
       </c>
@@ -3124,7 +4508,7 @@
         <v>2.98444393366636E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="1" t="s">
         <v>73</v>
       </c>
@@ -3135,7 +4519,7 @@
         <v>3.0310680028559599E-2</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79" s="1" t="s">
         <v>97</v>
       </c>
@@ -3146,7 +4530,7 @@
         <v>3.06070365671317E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80" s="1" t="s">
         <v>14</v>
       </c>
@@ -3263,10 +4647,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3274,10 +4658,12 @@
     <col min="1" max="1" width="13.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -3287,8 +4673,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -3298,8 +4693,17 @@
       <c r="C2" s="1">
         <v>9.6051282768198302E-11</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H2" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="I2" s="1">
+        <v>1.40922980626102</v>
+      </c>
+      <c r="J2" s="1">
+        <v>4.2875385377898401E-4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
@@ -3312,8 +4716,17 @@
       <c r="D3" s="2" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" s="1">
+        <v>-1.1180851712773701</v>
+      </c>
+      <c r="J3" s="1">
+        <v>8.4345769454175993E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>21</v>
       </c>
@@ -3323,8 +4736,17 @@
       <c r="C4" s="1">
         <v>1.41604291842926E-4</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H4" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="1">
+        <v>-1.0787465038566999</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.37698026825414E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -3334,8 +4756,17 @@
       <c r="C5" s="1">
         <v>3.9157081818664999E-4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H5" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" s="1">
+        <v>-1.0374918865748699</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1.8090159106081201E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>113</v>
       </c>
@@ -3345,8 +4776,17 @@
       <c r="C6" s="1">
         <v>4.2875385377898401E-4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>-1.4552590291151399</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2.1124792105952798E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>30</v>
       </c>
@@ -3356,8 +4796,17 @@
       <c r="C7" s="1">
         <v>4.63134965514184E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="1">
+        <v>-0.97535260918211897</v>
+      </c>
+      <c r="J7" s="1">
+        <v>2.4765162935657999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -3367,8 +4816,17 @@
       <c r="C8" s="1">
         <v>4.9500743623890897E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="1">
+        <v>-0.96895916974138396</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2.5034210693215202E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>136</v>
       </c>
@@ -3378,8 +4836,17 @@
       <c r="C9" s="1">
         <v>8.4345769454175993E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H9" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" s="1">
+        <v>-0.97698297535578504</v>
+      </c>
+      <c r="J9" s="1">
+        <v>2.7444841054729701E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>7</v>
       </c>
@@ -3389,8 +4856,17 @@
       <c r="C10" s="1">
         <v>1.27668435340938E-2</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H10" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="I10" s="1">
+        <v>-0.96647981246027903</v>
+      </c>
+      <c r="J10" s="1">
+        <v>2.8657998170951399E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>22</v>
       </c>
@@ -3400,8 +4876,17 @@
       <c r="C11" s="1">
         <v>1.3696754296884901E-2</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H11" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="I11" s="1">
+        <v>-0.94893890024000105</v>
+      </c>
+      <c r="J11" s="1">
+        <v>3.4666979712451702E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>54</v>
       </c>
@@ -3411,8 +4896,17 @@
       <c r="C12" s="1">
         <v>1.37698026825414E-2</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H12" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="1">
+        <v>-0.95859830879232599</v>
+      </c>
+      <c r="J12" s="1">
+        <v>3.6514514996008503E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>32</v>
       </c>
@@ -3422,8 +4916,17 @@
       <c r="C13" s="1">
         <v>1.46108325435321E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H13" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="1">
+        <v>-0.92404527493453603</v>
+      </c>
+      <c r="J13" s="1">
+        <v>3.7711649620098799E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>44</v>
       </c>
@@ -3433,8 +4936,17 @@
       <c r="C14" s="1">
         <v>1.49348649885755E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I14" s="1">
+        <v>-0.90250718593204005</v>
+      </c>
+      <c r="J14" s="1">
+        <v>3.9405552879377602E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>108</v>
       </c>
@@ -3444,8 +4956,17 @@
       <c r="C15" s="1">
         <v>1.8090159106081201E-2</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="H15" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0.91157162573324302</v>
+      </c>
+      <c r="J15" s="1">
+        <v>4.5008200119519198E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>5</v>
       </c>
@@ -3455,8 +4976,17 @@
       <c r="C16" s="1">
         <v>2.1124792105952798E-2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="1">
+        <v>-0.89150033777507398</v>
+      </c>
+      <c r="J16" s="1">
+        <v>4.6190843475124803E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>31</v>
       </c>
@@ -3466,8 +4996,17 @@
       <c r="C17" s="1">
         <v>2.4765162935657999E-2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H17" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="I17" s="1">
+        <v>-0.92292029013018395</v>
+      </c>
+      <c r="J17" s="1">
+        <v>4.6436742766472403E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>85</v>
       </c>
@@ -3477,8 +5016,17 @@
       <c r="C18" s="1">
         <v>2.5034210693215202E-2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="H18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I18" s="1">
+        <v>-0.90713652133771605</v>
+      </c>
+      <c r="J18" s="1">
+        <v>4.7621012858792298E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>114</v>
       </c>
@@ -3489,7 +5037,7 @@
         <v>2.7444841054729701E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>58</v>
       </c>
@@ -3500,7 +5048,7 @@
         <v>2.8657998170951399E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>137</v>
       </c>
@@ -3511,7 +5059,7 @@
         <v>3.4666979712451702E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>112</v>
       </c>
@@ -3522,7 +5070,7 @@
         <v>3.6514514996008503E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>57</v>
       </c>
@@ -3533,7 +5081,7 @@
         <v>3.7711649620098799E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>8</v>
       </c>
@@ -3544,7 +5092,7 @@
         <v>3.9075191166566797E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>64</v>
       </c>
@@ -3555,7 +5103,7 @@
         <v>3.9405552879377602E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>133</v>
       </c>
@@ -3566,7 +5114,7 @@
         <v>4.5008200119519198E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>61</v>
       </c>
@@ -3577,7 +5125,7 @@
         <v>4.6190843475124803E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>87</v>
       </c>
@@ -3588,7 +5136,7 @@
         <v>4.6436742766472403E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>129</v>
       </c>

--- a/DGEA/DEmiRNAs.xlsx
+++ b/DGEA/DEmiRNAs.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8676" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8676"/>
   </bookViews>
   <sheets>
     <sheet name="Stage 1" sheetId="1" r:id="rId1"/>
@@ -773,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -784,14 +784,14 @@
     <col min="1" max="1" width="13.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="8.88671875" style="1"/>
-    <col min="6" max="6" width="13.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="1"/>
+    <col min="4" max="7" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="13.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -801,17 +801,17 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -821,17 +821,17 @@
       <c r="C2" s="1">
         <v>2.6952298233743698E-6</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="1">
+      <c r="I2" s="1">
         <v>-1.32397276473878</v>
       </c>
-      <c r="H2" s="1">
+      <c r="J2" s="1">
         <v>2.1027911569923601E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -841,17 +841,17 @@
       <c r="C3" s="1">
         <v>7.3207434468155902E-5</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="1">
+      <c r="I3" s="1">
         <v>-1.0942581182893001</v>
       </c>
-      <c r="H3" s="1">
+      <c r="J3" s="1">
         <v>2.4744489103116201E-3</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -861,17 +861,17 @@
       <c r="C4" s="1">
         <v>2.1027911569923601E-4</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G4" s="1">
+      <c r="I4" s="1">
         <v>-0.99623934006880899</v>
       </c>
-      <c r="H4" s="1">
+      <c r="J4" s="1">
         <v>4.5991898449563098E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,17 +881,17 @@
       <c r="C5" s="1">
         <v>3.1721570805416801E-4</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="1">
+      <c r="I5" s="1">
         <v>-1.55022939259903</v>
       </c>
-      <c r="H5" s="1">
+      <c r="J5" s="1">
         <v>2.6175578928562801E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -901,17 +901,17 @@
       <c r="C6" s="1">
         <v>7.9637850093483098E-4</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G6" s="1">
+      <c r="I6" s="1">
         <v>1.1907173014400201</v>
       </c>
-      <c r="H6" s="1">
+      <c r="J6" s="1">
         <v>4.2144974750312002E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -922,7 +922,7 @@
         <v>9.29509611945578E-4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -933,7 +933,7 @@
         <v>1.1016435928305E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -944,7 +944,7 @@
         <v>2.4744489103116201E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -955,7 +955,7 @@
         <v>3.2876157739615999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>12</v>
       </c>
@@ -966,7 +966,7 @@
         <v>4.5991898449563098E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
@@ -977,7 +977,7 @@
         <v>4.9311007608041904E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>14</v>
       </c>
@@ -988,7 +988,7 @@
         <v>6.29194995595065E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>15</v>
       </c>
@@ -999,7 +999,7 @@
         <v>7.1707402953690401E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>16</v>
       </c>
@@ -1010,7 +1010,7 @@
         <v>8.6828246007662306E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>17</v>
       </c>
@@ -1021,7 +1021,7 @@
         <v>9.4105685124482308E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>18</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>1.4645679982843701E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>19</v>
       </c>
@@ -1043,7 +1043,7 @@
         <v>1.5731065441853102E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>20</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>1.63029636376377E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>21</v>
       </c>
@@ -1065,7 +1065,7 @@
         <v>1.6901743270984301E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>22</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>1.8628450447750002E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>23</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>2.4103414167583201E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -1098,7 +1098,7 @@
         <v>2.6175578928562801E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>25</v>
       </c>
@@ -1109,7 +1109,7 @@
         <v>3.29556139357471E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>26</v>
       </c>
@@ -1120,7 +1120,7 @@
         <v>3.4006117394101601E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>27</v>
       </c>
@@ -1131,7 +1131,7 @@
         <v>4.2144974750312002E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>28</v>
       </c>
@@ -1144,6 +1144,8 @@
       <c r="D27" s="2" t="s">
         <v>29</v>
       </c>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4649,7 +4651,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
